--- a/MavenProject1/TestInput/InputSheet.xlsx
+++ b/MavenProject1/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>TC002</t>
+  </si>
+  <si>
+    <t>Qedge123!@#</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -658,7 +661,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,7 +797,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1016,7 @@
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1349,7 +1352,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1361,7 @@
     <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="6"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -1482,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/MavenProject1/TestInput/InputSheet.xlsx
+++ b/MavenProject1/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="59">
   <si>
     <t>TCID</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Qedge123!@#</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
